--- a/excel/cultivate_config.xlsx
+++ b/excel/cultivate_config.xlsx
@@ -1325,7 +1325,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6:D15"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1771,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E26" s="4">
         <v>100</v>
@@ -1788,7 +1788,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="E27" s="4">
         <v>200</v>
@@ -1805,7 +1805,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="E28" s="4">
         <v>500</v>
@@ -1822,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="3">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="E29" s="4">
         <v>800</v>
@@ -1839,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="3">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="E30" s="4">
         <v>1100</v>
@@ -1856,7 +1856,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="3">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E31" s="4">
         <v>1400</v>
@@ -1873,7 +1873,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="3">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E32" s="4">
         <v>1700</v>
@@ -1890,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="3">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E33" s="4">
         <v>2000</v>
@@ -1907,7 +1907,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E34" s="4">
         <v>2300</v>
@@ -1924,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E35" s="4">
         <v>2600</v>

--- a/excel/cultivate_config.xlsx
+++ b/excel/cultivate_config.xlsx
@@ -1325,7 +1325,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4">
         <v>100</v>
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4">
         <v>200</v>
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4">
         <v>500</v>
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4">
         <v>800</v>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4">
         <v>1100</v>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4">
         <v>1400</v>
@@ -1533,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4">
         <v>1700</v>
@@ -1550,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E13" s="4">
         <v>2000</v>
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E14" s="4">
         <v>2300</v>
@@ -1584,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E15" s="4">
         <v>2600</v>
@@ -1771,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E26" s="4">
         <v>100</v>
@@ -1788,7 +1788,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="E27" s="4">
         <v>200</v>
@@ -1805,7 +1805,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="E28" s="4">
         <v>500</v>
@@ -1822,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="3">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="E29" s="4">
         <v>800</v>
@@ -1839,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="3">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="E30" s="4">
         <v>1100</v>
@@ -1856,7 +1856,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="3">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E31" s="4">
         <v>1400</v>
@@ -1873,7 +1873,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="3">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="E32" s="4">
         <v>1700</v>
@@ -1890,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="3">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="E33" s="4">
         <v>2000</v>
@@ -1907,7 +1907,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="E34" s="4">
         <v>2300</v>
@@ -1924,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="E35" s="4">
         <v>2600</v>

--- a/excel/cultivate_config.xlsx
+++ b/excel/cultivate_config.xlsx
@@ -1325,7 +1325,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1771,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E26" s="4">
         <v>100</v>
@@ -1788,7 +1788,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="E27" s="4">
         <v>200</v>
@@ -1805,7 +1805,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="E28" s="4">
         <v>500</v>
@@ -1822,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="3">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="E29" s="4">
         <v>800</v>
@@ -1839,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="3">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="E30" s="4">
         <v>1100</v>
@@ -1856,7 +1856,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="3">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E31" s="4">
         <v>1400</v>
@@ -1873,7 +1873,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="3">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E32" s="4">
         <v>1700</v>
@@ -1890,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="3">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E33" s="4">
         <v>2000</v>
@@ -1907,7 +1907,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E34" s="4">
         <v>2300</v>
@@ -1924,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="E35" s="4">
         <v>2600</v>

--- a/excel/cultivate_config.xlsx
+++ b/excel/cultivate_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12780"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -329,12 +329,30 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -655,7 +673,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,16 +697,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -697,90 +715,99 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -789,10 +816,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1320,614 +1359,869 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="11.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="11.1333333333333" customWidth="1"/>
     <col min="3" max="5" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="16.5" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="16.5" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="16.5" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:5">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:5">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3">
+    <row r="6" s="1" customFormat="1" spans="1:5">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>20</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:5">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>24</v>
+      </c>
+      <c r="E9" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:5">
+      <c r="A10" s="6">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:5">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>27</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:5">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:5">
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>30</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:5">
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>32</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:5">
+      <c r="A15" s="6">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>33</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:5">
+      <c r="A16" s="6">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>35</v>
+      </c>
+      <c r="E16" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:5">
+      <c r="A17" s="6">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:5">
+      <c r="A18" s="6">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>37</v>
+      </c>
+      <c r="E18" s="7">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:5">
+      <c r="A19" s="6">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>38</v>
+      </c>
+      <c r="E19" s="7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:5">
+      <c r="A20" s="6">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>40</v>
+      </c>
+      <c r="E20" s="7">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:5">
+      <c r="A21" s="8">
+        <v>16</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:5">
+      <c r="A22" s="8">
+        <v>17</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:5">
+      <c r="A23" s="8">
+        <v>18</v>
+      </c>
+      <c r="B23" s="8">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>3</v>
+      </c>
+      <c r="E23" s="9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:5">
+      <c r="A24" s="8">
+        <v>19</v>
+      </c>
+      <c r="B24" s="8">
+        <v>4</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>4</v>
+      </c>
+      <c r="E24" s="9">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:5">
+      <c r="A25" s="8">
+        <v>20</v>
+      </c>
+      <c r="B25" s="8">
+        <v>5</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8">
+        <v>5</v>
+      </c>
+      <c r="E25" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:5">
+      <c r="A26" s="8">
+        <v>21</v>
+      </c>
+      <c r="B26" s="8">
+        <v>6</v>
+      </c>
+      <c r="C26" s="8">
+        <v>2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>6</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:5">
+      <c r="A27" s="8">
+        <v>22</v>
+      </c>
+      <c r="B27" s="8">
+        <v>7</v>
+      </c>
+      <c r="C27" s="8">
+        <v>2</v>
+      </c>
+      <c r="D27" s="8">
+        <v>7</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:5">
+      <c r="A28" s="8">
+        <v>23</v>
+      </c>
+      <c r="B28" s="8">
+        <v>8</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2</v>
+      </c>
+      <c r="D28" s="8">
+        <v>8</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:5">
+      <c r="A29" s="8">
+        <v>24</v>
+      </c>
+      <c r="B29" s="8">
+        <v>9</v>
+      </c>
+      <c r="C29" s="8">
+        <v>2</v>
+      </c>
+      <c r="D29" s="8">
+        <v>9</v>
+      </c>
+      <c r="E29" s="9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:5">
+      <c r="A30" s="8">
+        <v>25</v>
+      </c>
+      <c r="B30" s="8">
+        <v>10</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>10</v>
+      </c>
+      <c r="E30" s="9">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:5">
+      <c r="A31" s="8">
+        <v>26</v>
+      </c>
+      <c r="B31" s="8">
+        <v>11</v>
+      </c>
+      <c r="C31" s="8">
+        <v>2</v>
+      </c>
+      <c r="D31" s="8">
+        <v>11</v>
+      </c>
+      <c r="E31" s="9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:5">
+      <c r="A32" s="8">
+        <v>27</v>
+      </c>
+      <c r="B32" s="8">
+        <v>12</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>12</v>
+      </c>
+      <c r="E32" s="9">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:5">
+      <c r="A33" s="8">
+        <v>28</v>
+      </c>
+      <c r="B33" s="8">
+        <v>13</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2</v>
+      </c>
+      <c r="D33" s="8">
+        <v>13</v>
+      </c>
+      <c r="E33" s="9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:5">
+      <c r="A34" s="8">
+        <v>29</v>
+      </c>
+      <c r="B34" s="8">
+        <v>14</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2</v>
+      </c>
+      <c r="D34" s="8">
+        <v>14</v>
+      </c>
+      <c r="E34" s="9">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:5">
+      <c r="A35" s="8">
+        <v>30</v>
+      </c>
+      <c r="B35" s="8">
+        <v>15</v>
+      </c>
+      <c r="C35" s="8">
+        <v>2</v>
+      </c>
+      <c r="D35" s="8">
+        <v>15</v>
+      </c>
+      <c r="E35" s="9">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="1:5">
+      <c r="A36" s="10">
+        <v>31</v>
+      </c>
+      <c r="B36" s="10">
+        <v>1</v>
+      </c>
+      <c r="C36" s="10">
+        <v>3</v>
+      </c>
+      <c r="D36" s="10">
+        <v>10</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" s="3" customFormat="1" spans="1:5">
+      <c r="A37" s="10">
+        <v>32</v>
+      </c>
+      <c r="B37" s="10">
+        <v>2</v>
+      </c>
+      <c r="C37" s="10">
+        <v>3</v>
+      </c>
+      <c r="D37" s="10">
+        <v>20</v>
+      </c>
+      <c r="E37" s="11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" s="3" customFormat="1" spans="1:5">
+      <c r="A38" s="10">
+        <v>33</v>
+      </c>
+      <c r="B38" s="10">
+        <v>3</v>
+      </c>
+      <c r="C38" s="10">
+        <v>3</v>
+      </c>
+      <c r="D38" s="10">
+        <v>30</v>
+      </c>
+      <c r="E38" s="11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" s="3" customFormat="1" spans="1:5">
+      <c r="A39" s="10">
+        <v>34</v>
+      </c>
+      <c r="B39" s="10">
+        <v>4</v>
+      </c>
+      <c r="C39" s="10">
+        <v>3</v>
+      </c>
+      <c r="D39" s="10">
+        <v>40</v>
+      </c>
+      <c r="E39" s="11">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="40" s="3" customFormat="1" spans="1:5">
+      <c r="A40" s="10">
+        <v>35</v>
+      </c>
+      <c r="B40" s="10">
+        <v>5</v>
+      </c>
+      <c r="C40" s="10">
+        <v>3</v>
+      </c>
+      <c r="D40" s="10">
+        <v>50</v>
+      </c>
+      <c r="E40" s="11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="41" s="3" customFormat="1" spans="1:5">
+      <c r="A41" s="10">
+        <v>36</v>
+      </c>
+      <c r="B41" s="10">
+        <v>6</v>
+      </c>
+      <c r="C41" s="10">
+        <v>3</v>
+      </c>
+      <c r="D41" s="10">
+        <v>60</v>
+      </c>
+      <c r="E41" s="11">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="42" s="3" customFormat="1" spans="1:5">
+      <c r="A42" s="10">
+        <v>37</v>
+      </c>
+      <c r="B42" s="10">
+        <v>7</v>
+      </c>
+      <c r="C42" s="10">
+        <v>3</v>
+      </c>
+      <c r="D42" s="10">
+        <v>70</v>
+      </c>
+      <c r="E42" s="11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="43" s="3" customFormat="1" spans="1:5">
+      <c r="A43" s="10">
+        <v>38</v>
+      </c>
+      <c r="B43" s="10">
+        <v>8</v>
+      </c>
+      <c r="C43" s="10">
+        <v>3</v>
+      </c>
+      <c r="D43" s="10">
+        <v>80</v>
+      </c>
+      <c r="E43" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" s="3" customFormat="1" spans="1:5">
+      <c r="A44" s="10">
+        <v>39</v>
+      </c>
+      <c r="B44" s="10">
+        <v>9</v>
+      </c>
+      <c r="C44" s="10">
+        <v>3</v>
+      </c>
+      <c r="D44" s="10">
+        <v>90</v>
+      </c>
+      <c r="E44" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="45" s="3" customFormat="1" spans="1:5">
+      <c r="A45" s="10">
+        <v>40</v>
+      </c>
+      <c r="B45" s="10">
+        <v>10</v>
+      </c>
+      <c r="C45" s="10">
+        <v>3</v>
+      </c>
+      <c r="D45" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>22</v>
-      </c>
-      <c r="E7" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3">
+      <c r="E45" s="11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="46" s="3" customFormat="1" spans="1:5">
+      <c r="A46" s="10">
+        <v>41</v>
+      </c>
+      <c r="B46" s="10">
+        <v>11</v>
+      </c>
+      <c r="C46" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="3">
+      <c r="D46" s="10">
+        <v>110</v>
+      </c>
+      <c r="E46" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="47" s="3" customFormat="1" spans="1:5">
+      <c r="A47" s="10">
+        <v>42</v>
+      </c>
+      <c r="B47" s="10">
+        <v>12</v>
+      </c>
+      <c r="C47" s="10">
         <v>3</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>30</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>32</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>34</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>36</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>38</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3">
-        <v>20</v>
-      </c>
-      <c r="E16" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>22</v>
-      </c>
-      <c r="E17" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3">
+      <c r="D47" s="10">
+        <v>120</v>
+      </c>
+      <c r="E47" s="11">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="48" s="3" customFormat="1" spans="1:5">
+      <c r="A48" s="10">
+        <v>43</v>
+      </c>
+      <c r="B48" s="10">
         <v>13</v>
       </c>
-      <c r="B18" s="3">
+      <c r="C48" s="10">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>24</v>
-      </c>
-      <c r="E18" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3">
+      <c r="D48" s="10">
+        <v>130</v>
+      </c>
+      <c r="E48" s="11">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="49" s="3" customFormat="1" spans="1:5">
+      <c r="A49" s="10">
+        <v>44</v>
+      </c>
+      <c r="B49" s="10">
         <v>14</v>
       </c>
-      <c r="B19" s="3">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>26</v>
-      </c>
-      <c r="E19" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3">
+      <c r="C49" s="10">
+        <v>3</v>
+      </c>
+      <c r="D49" s="10">
+        <v>140</v>
+      </c>
+      <c r="E49" s="11">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="50" s="3" customFormat="1" spans="1:5">
+      <c r="A50" s="10">
+        <v>45</v>
+      </c>
+      <c r="B50" s="10">
         <v>15</v>
       </c>
-      <c r="B20" s="3">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>28</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3">
-        <v>6</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3">
-        <v>30</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3">
-        <v>17</v>
-      </c>
-      <c r="B22" s="3">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>32</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3">
-        <v>8</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3">
-        <v>34</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3">
-        <v>19</v>
-      </c>
-      <c r="B24" s="3">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>36</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3">
-        <v>20</v>
-      </c>
-      <c r="B25" s="3">
-        <v>10</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3">
-        <v>38</v>
-      </c>
-      <c r="E25" s="4">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3">
-        <v>21</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="C50" s="10">
         <v>3</v>
       </c>
-      <c r="D26" s="3">
-        <v>100</v>
-      </c>
-      <c r="E26" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3">
-        <v>22</v>
-      </c>
-      <c r="B27" s="3">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3</v>
-      </c>
-      <c r="D27" s="3">
-        <v>110</v>
-      </c>
-      <c r="E27" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3">
-        <v>23</v>
-      </c>
-      <c r="B28" s="3">
-        <v>3</v>
-      </c>
-      <c r="C28" s="3">
-        <v>3</v>
-      </c>
-      <c r="D28" s="3">
-        <v>120</v>
-      </c>
-      <c r="E28" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="3">
-        <v>24</v>
-      </c>
-      <c r="B29" s="3">
-        <v>4</v>
-      </c>
-      <c r="C29" s="3">
-        <v>3</v>
-      </c>
-      <c r="D29" s="3">
-        <v>130</v>
-      </c>
-      <c r="E29" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="3">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3">
-        <v>5</v>
-      </c>
-      <c r="C30" s="3">
-        <v>3</v>
-      </c>
-      <c r="D30" s="3">
-        <v>140</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3">
-        <v>26</v>
-      </c>
-      <c r="B31" s="3">
-        <v>6</v>
-      </c>
-      <c r="C31" s="3">
-        <v>3</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="D50" s="10">
         <v>150</v>
       </c>
-      <c r="E31" s="4">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="3">
-        <v>27</v>
-      </c>
-      <c r="B32" s="3">
-        <v>7</v>
-      </c>
-      <c r="C32" s="3">
-        <v>3</v>
-      </c>
-      <c r="D32" s="3">
-        <v>160</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="3">
-        <v>28</v>
-      </c>
-      <c r="B33" s="3">
-        <v>8</v>
-      </c>
-      <c r="C33" s="3">
-        <v>3</v>
-      </c>
-      <c r="D33" s="3">
-        <v>170</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="3">
-        <v>29</v>
-      </c>
-      <c r="B34" s="3">
-        <v>9</v>
-      </c>
-      <c r="C34" s="3">
-        <v>3</v>
-      </c>
-      <c r="D34" s="3">
-        <v>180</v>
-      </c>
-      <c r="E34" s="4">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="3">
-        <v>30</v>
-      </c>
-      <c r="B35" s="3">
-        <v>10</v>
-      </c>
-      <c r="C35" s="3">
-        <v>3</v>
-      </c>
-      <c r="D35" s="3">
-        <v>200</v>
-      </c>
-      <c r="E35" s="4">
-        <v>2600</v>
+      <c r="E50" s="11">
+        <v>9000</v>
       </c>
     </row>
   </sheetData>

--- a/excel/cultivate_config.xlsx
+++ b/excel/cultivate_config.xlsx
@@ -329,7 +329,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,7 +350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +679,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,16 +703,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -715,89 +721,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,6 +814,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1359,12 +1368,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1375,855 +1384,1451 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
         <v>20</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
         <v>21</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>250</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="6">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
         <v>23</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>400</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>4</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
         <v>24</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>700</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>5</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
         <v>26</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>900</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>6</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
         <v>27</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>1200</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>7</v>
       </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
         <v>29</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>1500</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>8</v>
       </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
         <v>30</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>2000</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="7">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
         <v>32</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="8">
         <v>3000</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="7">
         <v>10</v>
       </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
         <v>33</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="8">
         <v>4000</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
-      <c r="A16" s="6">
+      <c r="A16" s="7">
         <v>11</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="7">
         <v>11</v>
       </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
         <v>35</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="8">
         <v>5000</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="7">
         <v>12</v>
       </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
         <v>36</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="8">
         <v>6000</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>13</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="7">
         <v>13</v>
       </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
         <v>37</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="8">
         <v>7000</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
-      <c r="A19" s="6">
+      <c r="A19" s="7">
         <v>14</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="7">
         <v>14</v>
       </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
         <v>38</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="8">
         <v>8000</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="6">
+      <c r="A20" s="7">
         <v>15</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="7">
         <v>15</v>
       </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
         <v>40</v>
       </c>
-      <c r="E20" s="7">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:5">
-      <c r="A21" s="8">
+      <c r="E20" s="8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:5">
+      <c r="A21" s="7">
         <v>16</v>
       </c>
-      <c r="B21" s="8">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="B21" s="7">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>42</v>
+      </c>
+      <c r="E21" s="8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:5">
+      <c r="A22" s="7">
+        <v>17</v>
+      </c>
+      <c r="B22" s="7">
+        <v>17</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>44</v>
+      </c>
+      <c r="E22" s="8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:5">
+      <c r="A23" s="7">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7">
+        <v>18</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>46</v>
+      </c>
+      <c r="E23" s="8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:5">
+      <c r="A24" s="7">
+        <v>19</v>
+      </c>
+      <c r="B24" s="7">
+        <v>19</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>48</v>
+      </c>
+      <c r="E24" s="8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:5">
+      <c r="A25" s="7">
+        <v>20</v>
+      </c>
+      <c r="B25" s="7">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>50</v>
+      </c>
+      <c r="E25" s="8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:5">
+      <c r="A26" s="7">
+        <v>21</v>
+      </c>
+      <c r="B26" s="7">
+        <v>21</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>54</v>
+      </c>
+      <c r="E26" s="8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:5">
+      <c r="A27" s="7">
+        <v>22</v>
+      </c>
+      <c r="B27" s="7">
+        <v>22</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
+        <v>58</v>
+      </c>
+      <c r="E27" s="8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:5">
+      <c r="A28" s="7">
+        <v>23</v>
+      </c>
+      <c r="B28" s="7">
+        <v>23</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>62</v>
+      </c>
+      <c r="E28" s="8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:5">
+      <c r="A29" s="7">
+        <v>24</v>
+      </c>
+      <c r="B29" s="7">
+        <v>24</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>66</v>
+      </c>
+      <c r="E29" s="8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:5">
+      <c r="A30" s="7">
+        <v>25</v>
+      </c>
+      <c r="B30" s="7">
+        <v>25</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>70</v>
+      </c>
+      <c r="E30" s="8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:5">
+      <c r="A31" s="7">
+        <v>26</v>
+      </c>
+      <c r="B31" s="7">
+        <v>26</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>74</v>
+      </c>
+      <c r="E31" s="8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:5">
+      <c r="A32" s="7">
+        <v>27</v>
+      </c>
+      <c r="B32" s="7">
+        <v>27</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>78</v>
+      </c>
+      <c r="E32" s="8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:5">
+      <c r="A33" s="7">
+        <v>28</v>
+      </c>
+      <c r="B33" s="7">
+        <v>28</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>82</v>
+      </c>
+      <c r="E33" s="8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:5">
+      <c r="A34" s="7">
+        <v>29</v>
+      </c>
+      <c r="B34" s="7">
+        <v>29</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
+        <v>86</v>
+      </c>
+      <c r="E34" s="8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:5">
+      <c r="A35" s="7">
+        <v>30</v>
+      </c>
+      <c r="B35" s="7">
+        <v>30</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>90</v>
+      </c>
+      <c r="E35" s="8">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:5">
+      <c r="A36" s="9">
+        <v>31</v>
+      </c>
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9">
         <v>2</v>
       </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:5">
-      <c r="A22" s="8">
+    <row r="37" s="2" customFormat="1" spans="1:5">
+      <c r="A37" s="9">
+        <v>32</v>
+      </c>
+      <c r="B37" s="9">
+        <v>2</v>
+      </c>
+      <c r="C37" s="9">
+        <v>2</v>
+      </c>
+      <c r="D37" s="9">
+        <v>2</v>
+      </c>
+      <c r="E37" s="10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:5">
+      <c r="A38" s="9">
+        <v>33</v>
+      </c>
+      <c r="B38" s="9">
+        <v>3</v>
+      </c>
+      <c r="C38" s="9">
+        <v>2</v>
+      </c>
+      <c r="D38" s="9">
+        <v>3</v>
+      </c>
+      <c r="E38" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:5">
+      <c r="A39" s="9">
+        <v>34</v>
+      </c>
+      <c r="B39" s="9">
+        <v>4</v>
+      </c>
+      <c r="C39" s="9">
+        <v>2</v>
+      </c>
+      <c r="D39" s="9">
+        <v>4</v>
+      </c>
+      <c r="E39" s="10">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:5">
+      <c r="A40" s="9">
+        <v>35</v>
+      </c>
+      <c r="B40" s="9">
+        <v>5</v>
+      </c>
+      <c r="C40" s="9">
+        <v>2</v>
+      </c>
+      <c r="D40" s="9">
+        <v>5</v>
+      </c>
+      <c r="E40" s="10">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:5">
+      <c r="A41" s="9">
+        <v>36</v>
+      </c>
+      <c r="B41" s="9">
+        <v>6</v>
+      </c>
+      <c r="C41" s="9">
+        <v>2</v>
+      </c>
+      <c r="D41" s="9">
+        <v>6</v>
+      </c>
+      <c r="E41" s="10">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:5">
+      <c r="A42" s="9">
+        <v>37</v>
+      </c>
+      <c r="B42" s="9">
+        <v>7</v>
+      </c>
+      <c r="C42" s="9">
+        <v>2</v>
+      </c>
+      <c r="D42" s="9">
+        <v>7</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="1:5">
+      <c r="A43" s="9">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9">
+        <v>8</v>
+      </c>
+      <c r="C43" s="9">
+        <v>2</v>
+      </c>
+      <c r="D43" s="9">
+        <v>8</v>
+      </c>
+      <c r="E43" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="1:5">
+      <c r="A44" s="9">
+        <v>39</v>
+      </c>
+      <c r="B44" s="9">
+        <v>9</v>
+      </c>
+      <c r="C44" s="9">
+        <v>2</v>
+      </c>
+      <c r="D44" s="9">
+        <v>9</v>
+      </c>
+      <c r="E44" s="10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="1:5">
+      <c r="A45" s="9">
+        <v>40</v>
+      </c>
+      <c r="B45" s="9">
+        <v>10</v>
+      </c>
+      <c r="C45" s="9">
+        <v>2</v>
+      </c>
+      <c r="D45" s="9">
+        <v>10</v>
+      </c>
+      <c r="E45" s="10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="1:5">
+      <c r="A46" s="9">
+        <v>41</v>
+      </c>
+      <c r="B46" s="9">
+        <v>11</v>
+      </c>
+      <c r="C46" s="9">
+        <v>2</v>
+      </c>
+      <c r="D46" s="9">
+        <v>11</v>
+      </c>
+      <c r="E46" s="10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="1:5">
+      <c r="A47" s="9">
+        <v>42</v>
+      </c>
+      <c r="B47" s="9">
+        <v>12</v>
+      </c>
+      <c r="C47" s="9">
+        <v>2</v>
+      </c>
+      <c r="D47" s="9">
+        <v>12</v>
+      </c>
+      <c r="E47" s="10">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:5">
+      <c r="A48" s="9">
+        <v>43</v>
+      </c>
+      <c r="B48" s="9">
+        <v>13</v>
+      </c>
+      <c r="C48" s="9">
+        <v>2</v>
+      </c>
+      <c r="D48" s="9">
+        <v>13</v>
+      </c>
+      <c r="E48" s="10">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:5">
+      <c r="A49" s="9">
+        <v>44</v>
+      </c>
+      <c r="B49" s="9">
+        <v>14</v>
+      </c>
+      <c r="C49" s="9">
+        <v>2</v>
+      </c>
+      <c r="D49" s="9">
+        <v>14</v>
+      </c>
+      <c r="E49" s="10">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="1:5">
+      <c r="A50" s="9">
+        <v>45</v>
+      </c>
+      <c r="B50" s="9">
+        <v>15</v>
+      </c>
+      <c r="C50" s="9">
+        <v>2</v>
+      </c>
+      <c r="D50" s="9">
+        <v>15</v>
+      </c>
+      <c r="E50" s="10">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:5">
+      <c r="A51" s="9">
+        <v>46</v>
+      </c>
+      <c r="B51" s="9">
+        <v>16</v>
+      </c>
+      <c r="C51" s="9">
+        <v>2</v>
+      </c>
+      <c r="D51" s="9">
+        <v>16</v>
+      </c>
+      <c r="E51" s="10">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="1:5">
+      <c r="A52" s="9">
+        <v>47</v>
+      </c>
+      <c r="B52" s="9">
         <v>17</v>
       </c>
-      <c r="B22" s="8">
+      <c r="C52" s="9">
         <v>2</v>
       </c>
-      <c r="C22" s="8">
+      <c r="D52" s="9">
+        <v>17</v>
+      </c>
+      <c r="E52" s="10">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="1:5">
+      <c r="A53" s="9">
+        <v>48</v>
+      </c>
+      <c r="B53" s="9">
+        <v>18</v>
+      </c>
+      <c r="C53" s="9">
         <v>2</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D53" s="9">
+        <v>18</v>
+      </c>
+      <c r="E53" s="10">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="1:5">
+      <c r="A54" s="9">
+        <v>49</v>
+      </c>
+      <c r="B54" s="9">
+        <v>19</v>
+      </c>
+      <c r="C54" s="9">
         <v>2</v>
       </c>
-      <c r="E22" s="9">
+      <c r="D54" s="9">
+        <v>19</v>
+      </c>
+      <c r="E54" s="10">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="1:5">
+      <c r="A55" s="9">
+        <v>50</v>
+      </c>
+      <c r="B55" s="9">
+        <v>20</v>
+      </c>
+      <c r="C55" s="9">
+        <v>2</v>
+      </c>
+      <c r="D55" s="9">
+        <v>20</v>
+      </c>
+      <c r="E55" s="10">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="56" s="3" customFormat="1" spans="1:5">
+      <c r="A56" s="11">
+        <v>51</v>
+      </c>
+      <c r="B56" s="11">
+        <v>1</v>
+      </c>
+      <c r="C56" s="11">
+        <v>3</v>
+      </c>
+      <c r="D56" s="11">
+        <v>10</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" s="3" customFormat="1" spans="1:5">
+      <c r="A57" s="11">
+        <v>52</v>
+      </c>
+      <c r="B57" s="11">
+        <v>2</v>
+      </c>
+      <c r="C57" s="11">
+        <v>3</v>
+      </c>
+      <c r="D57" s="11">
+        <v>20</v>
+      </c>
+      <c r="E57" s="12">
         <v>250</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:5">
-      <c r="A23" s="8">
+    <row r="58" s="3" customFormat="1" spans="1:5">
+      <c r="A58" s="11">
+        <v>53</v>
+      </c>
+      <c r="B58" s="11">
+        <v>3</v>
+      </c>
+      <c r="C58" s="11">
+        <v>3</v>
+      </c>
+      <c r="D58" s="11">
+        <v>30</v>
+      </c>
+      <c r="E58" s="12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" s="3" customFormat="1" spans="1:5">
+      <c r="A59" s="11">
+        <v>54</v>
+      </c>
+      <c r="B59" s="11">
+        <v>4</v>
+      </c>
+      <c r="C59" s="11">
+        <v>3</v>
+      </c>
+      <c r="D59" s="11">
+        <v>40</v>
+      </c>
+      <c r="E59" s="12">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" s="3" customFormat="1" spans="1:5">
+      <c r="A60" s="11">
+        <v>55</v>
+      </c>
+      <c r="B60" s="11">
+        <v>5</v>
+      </c>
+      <c r="C60" s="11">
+        <v>3</v>
+      </c>
+      <c r="D60" s="11">
+        <v>50</v>
+      </c>
+      <c r="E60" s="12">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="61" s="3" customFormat="1" spans="1:5">
+      <c r="A61" s="11">
+        <v>56</v>
+      </c>
+      <c r="B61" s="11">
+        <v>6</v>
+      </c>
+      <c r="C61" s="11">
+        <v>3</v>
+      </c>
+      <c r="D61" s="11">
+        <v>60</v>
+      </c>
+      <c r="E61" s="12">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="62" s="3" customFormat="1" spans="1:5">
+      <c r="A62" s="11">
+        <v>57</v>
+      </c>
+      <c r="B62" s="11">
+        <v>7</v>
+      </c>
+      <c r="C62" s="11">
+        <v>3</v>
+      </c>
+      <c r="D62" s="11">
+        <v>70</v>
+      </c>
+      <c r="E62" s="12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="63" s="3" customFormat="1" spans="1:5">
+      <c r="A63" s="11">
+        <v>58</v>
+      </c>
+      <c r="B63" s="11">
+        <v>8</v>
+      </c>
+      <c r="C63" s="11">
+        <v>3</v>
+      </c>
+      <c r="D63" s="11">
+        <v>80</v>
+      </c>
+      <c r="E63" s="12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="64" s="3" customFormat="1" spans="1:5">
+      <c r="A64" s="11">
+        <v>59</v>
+      </c>
+      <c r="B64" s="11">
+        <v>9</v>
+      </c>
+      <c r="C64" s="11">
+        <v>3</v>
+      </c>
+      <c r="D64" s="11">
+        <v>90</v>
+      </c>
+      <c r="E64" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="65" s="3" customFormat="1" spans="1:5">
+      <c r="A65" s="11">
+        <v>60</v>
+      </c>
+      <c r="B65" s="11">
+        <v>10</v>
+      </c>
+      <c r="C65" s="11">
+        <v>3</v>
+      </c>
+      <c r="D65" s="11">
+        <v>100</v>
+      </c>
+      <c r="E65" s="12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="66" s="3" customFormat="1" spans="1:5">
+      <c r="A66" s="11">
+        <v>61</v>
+      </c>
+      <c r="B66" s="11">
+        <v>11</v>
+      </c>
+      <c r="C66" s="11">
+        <v>3</v>
+      </c>
+      <c r="D66" s="11">
+        <v>110</v>
+      </c>
+      <c r="E66" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="67" s="3" customFormat="1" spans="1:5">
+      <c r="A67" s="11">
+        <v>62</v>
+      </c>
+      <c r="B67" s="11">
+        <v>12</v>
+      </c>
+      <c r="C67" s="11">
+        <v>3</v>
+      </c>
+      <c r="D67" s="11">
+        <v>120</v>
+      </c>
+      <c r="E67" s="12">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="68" s="3" customFormat="1" spans="1:5">
+      <c r="A68" s="11">
+        <v>63</v>
+      </c>
+      <c r="B68" s="11">
+        <v>13</v>
+      </c>
+      <c r="C68" s="11">
+        <v>3</v>
+      </c>
+      <c r="D68" s="11">
+        <v>130</v>
+      </c>
+      <c r="E68" s="12">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="69" s="3" customFormat="1" spans="1:5">
+      <c r="A69" s="11">
+        <v>64</v>
+      </c>
+      <c r="B69" s="11">
+        <v>14</v>
+      </c>
+      <c r="C69" s="11">
+        <v>3</v>
+      </c>
+      <c r="D69" s="11">
+        <v>140</v>
+      </c>
+      <c r="E69" s="12">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="70" s="3" customFormat="1" spans="1:5">
+      <c r="A70" s="11">
+        <v>65</v>
+      </c>
+      <c r="B70" s="11">
+        <v>15</v>
+      </c>
+      <c r="C70" s="11">
+        <v>3</v>
+      </c>
+      <c r="D70" s="11">
+        <v>150</v>
+      </c>
+      <c r="E70" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="71" s="3" customFormat="1" spans="1:5">
+      <c r="A71" s="11">
+        <v>66</v>
+      </c>
+      <c r="B71" s="11">
+        <v>16</v>
+      </c>
+      <c r="C71" s="11">
+        <v>3</v>
+      </c>
+      <c r="D71" s="11">
+        <v>160</v>
+      </c>
+      <c r="E71" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="72" s="3" customFormat="1" spans="1:5">
+      <c r="A72" s="11">
+        <v>67</v>
+      </c>
+      <c r="B72" s="11">
+        <v>17</v>
+      </c>
+      <c r="C72" s="11">
+        <v>3</v>
+      </c>
+      <c r="D72" s="11">
+        <v>170</v>
+      </c>
+      <c r="E72" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="73" s="3" customFormat="1" spans="1:5">
+      <c r="A73" s="11">
+        <v>68</v>
+      </c>
+      <c r="B73" s="11">
         <v>18</v>
       </c>
-      <c r="B23" s="8">
-        <v>3</v>
-      </c>
-      <c r="C23" s="8">
-        <v>2</v>
-      </c>
-      <c r="D23" s="8">
-        <v>3</v>
-      </c>
-      <c r="E23" s="9">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:5">
-      <c r="A24" s="8">
+      <c r="C73" s="11">
+        <v>3</v>
+      </c>
+      <c r="D73" s="11">
+        <v>180</v>
+      </c>
+      <c r="E73" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="74" s="3" customFormat="1" spans="1:5">
+      <c r="A74" s="11">
+        <v>69</v>
+      </c>
+      <c r="B74" s="11">
         <v>19</v>
       </c>
-      <c r="B24" s="8">
-        <v>4</v>
-      </c>
-      <c r="C24" s="8">
-        <v>2</v>
-      </c>
-      <c r="D24" s="8">
-        <v>4</v>
-      </c>
-      <c r="E24" s="9">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:5">
-      <c r="A25" s="8">
+      <c r="C74" s="11">
+        <v>3</v>
+      </c>
+      <c r="D74" s="11">
+        <v>190</v>
+      </c>
+      <c r="E74" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="75" s="3" customFormat="1" spans="1:5">
+      <c r="A75" s="11">
+        <v>70</v>
+      </c>
+      <c r="B75" s="11">
         <v>20</v>
       </c>
-      <c r="B25" s="8">
-        <v>5</v>
-      </c>
-      <c r="C25" s="8">
-        <v>2</v>
-      </c>
-      <c r="D25" s="8">
-        <v>5</v>
-      </c>
-      <c r="E25" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:5">
-      <c r="A26" s="8">
+      <c r="C75" s="11">
+        <v>3</v>
+      </c>
+      <c r="D75" s="11">
+        <v>200</v>
+      </c>
+      <c r="E75" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="76" s="4" customFormat="1" spans="1:5">
+      <c r="A76" s="11">
+        <v>71</v>
+      </c>
+      <c r="B76" s="11">
         <v>21</v>
       </c>
-      <c r="B26" s="8">
-        <v>6</v>
-      </c>
-      <c r="C26" s="8">
-        <v>2</v>
-      </c>
-      <c r="D26" s="8">
-        <v>6</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:5">
-      <c r="A27" s="8">
+      <c r="C76" s="11">
+        <v>3</v>
+      </c>
+      <c r="D76" s="11">
+        <v>210</v>
+      </c>
+      <c r="E76" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="77" s="4" customFormat="1" spans="1:5">
+      <c r="A77" s="11">
+        <v>72</v>
+      </c>
+      <c r="B77" s="11">
         <v>22</v>
       </c>
-      <c r="B27" s="8">
-        <v>7</v>
-      </c>
-      <c r="C27" s="8">
-        <v>2</v>
-      </c>
-      <c r="D27" s="8">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:5">
-      <c r="A28" s="8">
+      <c r="C77" s="11">
+        <v>3</v>
+      </c>
+      <c r="D77" s="11">
+        <v>220</v>
+      </c>
+      <c r="E77" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="78" s="4" customFormat="1" spans="1:5">
+      <c r="A78" s="11">
+        <v>73</v>
+      </c>
+      <c r="B78" s="11">
         <v>23</v>
       </c>
-      <c r="B28" s="8">
-        <v>8</v>
-      </c>
-      <c r="C28" s="8">
-        <v>2</v>
-      </c>
-      <c r="D28" s="8">
-        <v>8</v>
-      </c>
-      <c r="E28" s="9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="1:5">
-      <c r="A29" s="8">
+      <c r="C78" s="11">
+        <v>3</v>
+      </c>
+      <c r="D78" s="11">
+        <v>230</v>
+      </c>
+      <c r="E78" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="79" s="4" customFormat="1" spans="1:5">
+      <c r="A79" s="11">
+        <v>74</v>
+      </c>
+      <c r="B79" s="11">
         <v>24</v>
       </c>
-      <c r="B29" s="8">
-        <v>9</v>
-      </c>
-      <c r="C29" s="8">
-        <v>2</v>
-      </c>
-      <c r="D29" s="8">
-        <v>9</v>
-      </c>
-      <c r="E29" s="9">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="1:5">
-      <c r="A30" s="8">
+      <c r="C79" s="11">
+        <v>3</v>
+      </c>
+      <c r="D79" s="11">
+        <v>240</v>
+      </c>
+      <c r="E79" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="80" s="4" customFormat="1" spans="1:5">
+      <c r="A80" s="11">
+        <v>75</v>
+      </c>
+      <c r="B80" s="11">
         <v>25</v>
       </c>
-      <c r="B30" s="8">
-        <v>10</v>
-      </c>
-      <c r="C30" s="8">
-        <v>2</v>
-      </c>
-      <c r="D30" s="8">
-        <v>10</v>
-      </c>
-      <c r="E30" s="9">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="1:5">
-      <c r="A31" s="8">
+      <c r="C80" s="11">
+        <v>3</v>
+      </c>
+      <c r="D80" s="11">
+        <v>250</v>
+      </c>
+      <c r="E80" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="81" s="4" customFormat="1" spans="1:5">
+      <c r="A81" s="11">
+        <v>76</v>
+      </c>
+      <c r="B81" s="11">
         <v>26</v>
       </c>
-      <c r="B31" s="8">
-        <v>11</v>
-      </c>
-      <c r="C31" s="8">
-        <v>2</v>
-      </c>
-      <c r="D31" s="8">
-        <v>11</v>
-      </c>
-      <c r="E31" s="9">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:5">
-      <c r="A32" s="8">
+      <c r="C81" s="11">
+        <v>3</v>
+      </c>
+      <c r="D81" s="11">
+        <v>260</v>
+      </c>
+      <c r="E81" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="82" s="4" customFormat="1" spans="1:5">
+      <c r="A82" s="11">
+        <v>77</v>
+      </c>
+      <c r="B82" s="11">
         <v>27</v>
       </c>
-      <c r="B32" s="8">
-        <v>12</v>
-      </c>
-      <c r="C32" s="8">
-        <v>2</v>
-      </c>
-      <c r="D32" s="8">
-        <v>12</v>
-      </c>
-      <c r="E32" s="9">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:5">
-      <c r="A33" s="8">
+      <c r="C82" s="11">
+        <v>3</v>
+      </c>
+      <c r="D82" s="11">
+        <v>270</v>
+      </c>
+      <c r="E82" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="83" s="4" customFormat="1" spans="1:5">
+      <c r="A83" s="11">
+        <v>78</v>
+      </c>
+      <c r="B83" s="11">
         <v>28</v>
       </c>
-      <c r="B33" s="8">
-        <v>13</v>
-      </c>
-      <c r="C33" s="8">
-        <v>2</v>
-      </c>
-      <c r="D33" s="8">
-        <v>13</v>
-      </c>
-      <c r="E33" s="9">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" spans="1:5">
-      <c r="A34" s="8">
+      <c r="C83" s="11">
+        <v>3</v>
+      </c>
+      <c r="D83" s="11">
+        <v>280</v>
+      </c>
+      <c r="E83" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="84" s="4" customFormat="1" spans="1:5">
+      <c r="A84" s="11">
+        <v>79</v>
+      </c>
+      <c r="B84" s="11">
         <v>29</v>
       </c>
-      <c r="B34" s="8">
-        <v>14</v>
-      </c>
-      <c r="C34" s="8">
-        <v>2</v>
-      </c>
-      <c r="D34" s="8">
-        <v>14</v>
-      </c>
-      <c r="E34" s="9">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:5">
-      <c r="A35" s="8">
+      <c r="C84" s="11">
+        <v>3</v>
+      </c>
+      <c r="D84" s="11">
+        <v>290</v>
+      </c>
+      <c r="E84" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="85" s="4" customFormat="1" spans="1:5">
+      <c r="A85" s="11">
+        <v>80</v>
+      </c>
+      <c r="B85" s="11">
         <v>30</v>
       </c>
-      <c r="B35" s="8">
-        <v>15</v>
-      </c>
-      <c r="C35" s="8">
-        <v>2</v>
-      </c>
-      <c r="D35" s="8">
-        <v>15</v>
-      </c>
-      <c r="E35" s="9">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="36" s="3" customFormat="1" spans="1:5">
-      <c r="A36" s="10">
-        <v>31</v>
-      </c>
-      <c r="B36" s="10">
-        <v>1</v>
-      </c>
-      <c r="C36" s="10">
-        <v>3</v>
-      </c>
-      <c r="D36" s="10">
-        <v>10</v>
-      </c>
-      <c r="E36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" s="3" customFormat="1" spans="1:5">
-      <c r="A37" s="10">
-        <v>32</v>
-      </c>
-      <c r="B37" s="10">
-        <v>2</v>
-      </c>
-      <c r="C37" s="10">
-        <v>3</v>
-      </c>
-      <c r="D37" s="10">
-        <v>20</v>
-      </c>
-      <c r="E37" s="11">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" s="3" customFormat="1" spans="1:5">
-      <c r="A38" s="10">
-        <v>33</v>
-      </c>
-      <c r="B38" s="10">
-        <v>3</v>
-      </c>
-      <c r="C38" s="10">
-        <v>3</v>
-      </c>
-      <c r="D38" s="10">
-        <v>30</v>
-      </c>
-      <c r="E38" s="11">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="39" s="3" customFormat="1" spans="1:5">
-      <c r="A39" s="10">
-        <v>34</v>
-      </c>
-      <c r="B39" s="10">
-        <v>4</v>
-      </c>
-      <c r="C39" s="10">
-        <v>3</v>
-      </c>
-      <c r="D39" s="10">
-        <v>40</v>
-      </c>
-      <c r="E39" s="11">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="40" s="3" customFormat="1" spans="1:5">
-      <c r="A40" s="10">
-        <v>35</v>
-      </c>
-      <c r="B40" s="10">
-        <v>5</v>
-      </c>
-      <c r="C40" s="10">
-        <v>3</v>
-      </c>
-      <c r="D40" s="10">
-        <v>50</v>
-      </c>
-      <c r="E40" s="11">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="41" s="3" customFormat="1" spans="1:5">
-      <c r="A41" s="10">
-        <v>36</v>
-      </c>
-      <c r="B41" s="10">
-        <v>6</v>
-      </c>
-      <c r="C41" s="10">
-        <v>3</v>
-      </c>
-      <c r="D41" s="10">
-        <v>60</v>
-      </c>
-      <c r="E41" s="11">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="42" s="3" customFormat="1" spans="1:5">
-      <c r="A42" s="10">
-        <v>37</v>
-      </c>
-      <c r="B42" s="10">
-        <v>7</v>
-      </c>
-      <c r="C42" s="10">
-        <v>3</v>
-      </c>
-      <c r="D42" s="10">
-        <v>70</v>
-      </c>
-      <c r="E42" s="11">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="43" s="3" customFormat="1" spans="1:5">
-      <c r="A43" s="10">
-        <v>38</v>
-      </c>
-      <c r="B43" s="10">
-        <v>8</v>
-      </c>
-      <c r="C43" s="10">
-        <v>3</v>
-      </c>
-      <c r="D43" s="10">
-        <v>80</v>
-      </c>
-      <c r="E43" s="11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="44" s="3" customFormat="1" spans="1:5">
-      <c r="A44" s="10">
-        <v>39</v>
-      </c>
-      <c r="B44" s="10">
-        <v>9</v>
-      </c>
-      <c r="C44" s="10">
-        <v>3</v>
-      </c>
-      <c r="D44" s="10">
-        <v>90</v>
-      </c>
-      <c r="E44" s="11">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="45" s="3" customFormat="1" spans="1:5">
-      <c r="A45" s="10">
-        <v>40</v>
-      </c>
-      <c r="B45" s="10">
-        <v>10</v>
-      </c>
-      <c r="C45" s="10">
-        <v>3</v>
-      </c>
-      <c r="D45" s="10">
-        <v>100</v>
-      </c>
-      <c r="E45" s="11">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="46" s="3" customFormat="1" spans="1:5">
-      <c r="A46" s="10">
-        <v>41</v>
-      </c>
-      <c r="B46" s="10">
-        <v>11</v>
-      </c>
-      <c r="C46" s="10">
-        <v>3</v>
-      </c>
-      <c r="D46" s="10">
-        <v>110</v>
-      </c>
-      <c r="E46" s="11">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="47" s="3" customFormat="1" spans="1:5">
-      <c r="A47" s="10">
-        <v>42</v>
-      </c>
-      <c r="B47" s="10">
-        <v>12</v>
-      </c>
-      <c r="C47" s="10">
-        <v>3</v>
-      </c>
-      <c r="D47" s="10">
-        <v>120</v>
-      </c>
-      <c r="E47" s="11">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="48" s="3" customFormat="1" spans="1:5">
-      <c r="A48" s="10">
-        <v>43</v>
-      </c>
-      <c r="B48" s="10">
-        <v>13</v>
-      </c>
-      <c r="C48" s="10">
-        <v>3</v>
-      </c>
-      <c r="D48" s="10">
-        <v>130</v>
-      </c>
-      <c r="E48" s="11">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="49" s="3" customFormat="1" spans="1:5">
-      <c r="A49" s="10">
-        <v>44</v>
-      </c>
-      <c r="B49" s="10">
-        <v>14</v>
-      </c>
-      <c r="C49" s="10">
-        <v>3</v>
-      </c>
-      <c r="D49" s="10">
-        <v>140</v>
-      </c>
-      <c r="E49" s="11">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="50" s="3" customFormat="1" spans="1:5">
-      <c r="A50" s="10">
-        <v>45</v>
-      </c>
-      <c r="B50" s="10">
-        <v>15</v>
-      </c>
-      <c r="C50" s="10">
-        <v>3</v>
-      </c>
-      <c r="D50" s="10">
-        <v>150</v>
-      </c>
-      <c r="E50" s="11">
-        <v>9000</v>
-      </c>
-    </row>
+      <c r="C85" s="11">
+        <v>3</v>
+      </c>
+      <c r="D85" s="11">
+        <v>300</v>
+      </c>
+      <c r="E85" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="86" s="4" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
